--- a/INTLINE/data/924/NBS/Gross Domestic Product - A.xlsx
+++ b/INTLINE/data/924/NBS/Gross Domestic Product - A.xlsx
@@ -1,285 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NBS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Gross National Income(100 million yuan)</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product(100 million yuan)</t>
-  </si>
-  <si>
-    <t>Value-added of the Primary Industry(100 million yuan)</t>
-  </si>
-  <si>
-    <t>Value-added of the Secondary Industry(100 million yuan)</t>
-  </si>
-  <si>
-    <t>Value-added of the Tertiary Industry(100 million yuan)</t>
-  </si>
-  <si>
-    <t>Per Capita GDP(yuan)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -294,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -313,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -610,1528 +353,1712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicators</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:74">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Gross National Income(100 million yuan)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1133239.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1005451.3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>983751.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>915243.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>830945.7</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>742694.1</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>685571.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>644380.2</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>588141.2</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>537329</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>483392.8</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>410354.1</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>347934.9</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>321229.5</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>270704</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>219028.5</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>185998.9</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>161415.4</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>136576.3</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>120480.4</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>109276.2</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>99066.10000000001</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>89366.5</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>83817.60000000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>78802.89999999999</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>70779.60000000001</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>60356.6</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>48548.2</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>35599.2</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>27208.2</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>22050.3</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>18923.3</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>17188.4</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>15174.4</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>12166.6</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>10375.4</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>9123.6</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>7314.2</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>6043.8</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>5380.5</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>4933.7</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>4586.1</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>4100.5</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>3678.7</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>3250</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>2988.6</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>3039.5</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>2827.7</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>2756.2</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>2552.4</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>2456.9</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>2279.7</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>1962.2</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>1744.1</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>1794.2</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>1888.7</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>1734</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>1469.9</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>1248.3</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>1162.2</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>1232.3</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>1470.1</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>1447.5</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>1312.3</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>1071.4</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>1030.7</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>911.6</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>859.8</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>824.4</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>679.1</v>
       </c>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:74">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product(100 million yuan)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1143669.7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1013567</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>986515.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>919281.1</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>832035.9</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>746395.1</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>688858.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>643563.1</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>592963.2</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>538580</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>487940.2</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>412119.3</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>348517.7</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>319244.6</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>270092.3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>219438.5</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>187318.9</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>161840.2</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>137422</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>121717.4</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>110863.1</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>100280.1</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>90564.39999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>85195.5</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>79715</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>71813.60000000001</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>61339.9</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>48637.5</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>35673.2</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>27194.5</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>22005.6</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>18872.9</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>17179.7</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>15180.4</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>12174.6</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>10376.2</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>9098.9</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>7278.5</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>6020.9</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>5373.4</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>4935.8</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>4587.6</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>4100.5</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>3678.7</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>3250</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>2988.6</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>3039.5</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>2827.7</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>2756.2</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>2552.4</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>2456.9</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>2279.7</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>1962.2</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>1744.1</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>1794.2</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1888.7</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>1734</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>1469.9</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>1248.3</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>1162.2</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>1232.3</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>1470.1</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>1447.5</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>1312.3</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>1071.4</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>1030.7</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>911.6</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>859.8</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>824.4</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>679.1</v>
       </c>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:74">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Value-added of the Primary Industry(100 million yuan)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>83085.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>78030.89999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>70473.60000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>64745.2</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>62099.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>60139.2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>57774.6</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>55626.3</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>53028.1</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>49084.6</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>44781.5</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>38430.8</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>33583.8</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>32464.1</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>27674.1</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>23317</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>21806.7</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>20904.3</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>16970.2</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>16190.2</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>15502.5</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>14717.4</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>14549</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>14618.7</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>14265.2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>13878.3</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>12020.5</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>9471.799999999999</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>6887.6</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>5800.3</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>5288.8</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>5017.2</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>4228.2</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>3831.2</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>3204.5</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>2764.1</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>2541.7</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>2295.6</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>1960.9</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>1761.7</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>1545.7</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>1359.5</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>1259</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>1018.5</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>942.2</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>967.1</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>971.2</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>945.2</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>907.5</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>827.4</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>826.3</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>793.3</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>736.2</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>726.3</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>714.2</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>702.2</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>651.1</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>559</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>497.5</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>453.1</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>441.1</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>340.7</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>383.8</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>445.9</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>430</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>443.9</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>421</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>392</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>378</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>342.9</v>
       </c>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:74">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Value-added of the Secondary Industry(100 million yuan)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>450904.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>383562.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>380670.6</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>364835.2</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>331580.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>295427.8</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>281338.9</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>277282.8</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>261951.6</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>244639.1</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>227035.1</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>191626.5</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>160168.8</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>149952.9</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>126630.5</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>104359.2</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>88082.2</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>74285</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>62695.8</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>54104.1</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>49659.4</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>45663.7</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>41079.9</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>39017.5</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>37545</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>33827.3</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>28676.7</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>22452.5</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>16472.7</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>11725</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>9129.6</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>7744.1</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>7300.7</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>6607.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>5273.8</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>4515.1</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>3886.4</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>3124.7</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>2663</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>2397.6</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>2269</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>2204.7</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>1925.3</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>1755.1</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>1517.8</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>1346</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>1378.7</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>1199.8</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>1180.3</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>1091.6</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>1029.9</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>918.1</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>695</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>542.6</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>608</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>715.4</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>608.5</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>519.3</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>412.8</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>363.9</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>393.5</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>652.6</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>616.7</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>483.6</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>316.6</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>280.4</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>221.5</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>210.8</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>191.6</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>141.1</v>
       </c>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:74">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Value-added of the Tertiary Industry(100 million yuan)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>609679.7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>551973.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>535371</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>489700.8</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>438355.9</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>390828.1</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>349744.7</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>310654</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>277983.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>244856.2</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>216123.6</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>182061.9</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>154765.1</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>136827.5</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>115787.7</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>91762.2</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>77430</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>66650.89999999999</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>57756</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>51423.1</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>45701.2</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>39899.1</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>34935.5</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>31559.3</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>27904.8</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>24108</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>20642.7</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>16713.1</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>12313</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>9669.200000000001</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>7587.2</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>6111.6</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>5650.8</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>4742</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>3696.3</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>3097</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>2670.8</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>1858.2</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>1397.1</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>1214</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>1121.1</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>1023.4</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>916.1</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>905.1</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>790.1</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>675.6</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>689.6</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>682.7</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>668.4</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>633.3</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>600.6</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>568.3</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>531</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>475.3</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>472</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>471.1</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>474.4</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>391.6</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>337.9</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>345.1</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>397.7</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>476.8</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>447</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>382.8</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>324.8</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>306.5</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>269.1</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>257</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>254.8</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>195.1</v>
       </c>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:74">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita GDP(yuan)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>80976</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>71828</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>70078</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>65534</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>59592</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>53783</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>49922</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>46912</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>43497</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>39771</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>36277</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>30808</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>26180</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>24100</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>20494</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>16738</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>14368</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>12487</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>10666</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>9506</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>8717</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>7942</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>7229</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>6860</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>6481</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>5898</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>5091</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>4081</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>3027</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>2334</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>1912</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>1663</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>1536</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>1378</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>1123</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>973</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>866</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>702</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>588</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>533</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>497</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>468</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>423</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>385</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>344</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>321</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>332</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>314</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>313</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>296</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>292</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>279</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>247</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>225</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>238</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>257</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>242</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>210</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>183</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>175</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>187</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>220</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>217</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>201</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>168</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>166</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>150</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>144</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>142</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>119</v>
       </c>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>